--- a/TREC Alliance/29196/B1001F - ITP - Devil's Elbow.xlsx
+++ b/TREC Alliance/29196/B1001F - ITP - Devil's Elbow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trecnz.sharepoint.com/sites/ZONEB-SH2SOUTHHAWKESBAY/Shared Documents/B1001 - DEVILS ELBOW SLIPS RECOVERY/B1001F - Devils Elbow Culvert - SH2 RS608 RP8.817/07 Quality/0701 ITP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\TREC Alliance\29196\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CBBD476-2127-47A3-A79E-AB5CF230795C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B8FD7C-7990-4DF7-AC50-886FD886735D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2445" yWindow="450" windowWidth="29010" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MSE Wall " sheetId="1" r:id="rId1"/>
@@ -1803,6 +1803,97 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1833,107 +1924,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2061,8 +2061,8 @@
       <xdr:rowOff>51526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>611665</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>96997</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>176892</xdr:rowOff>
     </xdr:to>
@@ -2107,9 +2107,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2147,9 +2147,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2182,26 +2182,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2234,26 +2217,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2430,15 +2396,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M138"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="6" customWidth="1"/>
@@ -2447,8 +2413,8 @@
     <col min="7" max="7" width="25.42578125" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="12" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="13.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2457,17 +2423,17 @@
       <c r="C2" s="4"/>
       <c r="D2" s="7"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="136" t="s">
+      <c r="F2" s="167" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="137"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="139" t="s">
+      <c r="G2" s="168"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="170" t="s">
         <v>186</v>
       </c>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="141"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="172"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
@@ -2475,10 +2441,10 @@
       <c r="F3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="173" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="143"/>
+      <c r="H3" s="174"/>
       <c r="I3" s="124" t="s">
         <v>58</v>
       </c>
@@ -2493,10 +2459,10 @@
       <c r="F4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="144" t="s">
+      <c r="G4" s="175" t="s">
         <v>208</v>
       </c>
-      <c r="H4" s="145"/>
+      <c r="H4" s="176"/>
       <c r="I4" s="135" t="s">
         <v>219</v>
       </c>
@@ -2505,70 +2471,70 @@
       <c r="L4" s="127"/>
     </row>
     <row r="5" spans="2:12" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="160"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="148"/>
       <c r="I5" s="123"/>
       <c r="J5" s="128"/>
       <c r="K5" s="123"/>
       <c r="L5" s="128"/>
     </row>
     <row r="6" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="161" t="s">
+      <c r="B6" s="149" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="164" t="s">
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="164"/>
-      <c r="H6" s="167" t="s">
+      <c r="G6" s="152"/>
+      <c r="H6" s="155" t="s">
         <v>189</v>
       </c>
-      <c r="I6" s="149"/>
-      <c r="J6" s="147" t="s">
+      <c r="I6" s="156"/>
+      <c r="J6" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="148"/>
-      <c r="L6" s="149"/>
+      <c r="K6" s="178"/>
+      <c r="L6" s="156"/>
     </row>
     <row r="7" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="161" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="152"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="158"/>
     </row>
     <row r="8" spans="2:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="155"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="160"/>
     </row>
     <row r="9" spans="2:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="51" t="s">
@@ -2631,7 +2597,7 @@
       <c r="I10" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="175" t="s">
+      <c r="J10" s="137" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="82"/>
@@ -2661,10 +2627,10 @@
       <c r="I11" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="176" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="176" t="s">
+      <c r="J11" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L11" s="52"/>
@@ -2695,7 +2661,7 @@
       <c r="I12" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="176" t="s">
+      <c r="J12" s="138" t="s">
         <v>20</v>
       </c>
       <c r="K12" s="82"/>
@@ -2727,7 +2693,7 @@
       <c r="I13" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="176" t="s">
+      <c r="J13" s="138" t="s">
         <v>20</v>
       </c>
       <c r="K13" s="82"/>
@@ -2759,7 +2725,7 @@
       <c r="I14" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="176" t="s">
+      <c r="J14" s="138" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="82"/>
@@ -2791,7 +2757,7 @@
       <c r="I15" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="175" t="s">
+      <c r="J15" s="137" t="s">
         <v>20</v>
       </c>
       <c r="K15" s="82"/>
@@ -2821,7 +2787,7 @@
       <c r="I16" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="175" t="s">
+      <c r="J16" s="137" t="s">
         <v>20</v>
       </c>
       <c r="K16" s="82"/>
@@ -2851,10 +2817,10 @@
       <c r="I17" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="175" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="176" t="s">
+      <c r="J17" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L17" s="52"/>
@@ -2883,10 +2849,10 @@
       <c r="I18" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="175" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="176" t="s">
+      <c r="J18" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L18" s="114"/>
@@ -2917,7 +2883,7 @@
       <c r="I19" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="177" t="s">
+      <c r="J19" s="139" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="26" t="s">
@@ -2951,7 +2917,7 @@
       <c r="I20" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="177" t="s">
+      <c r="J20" s="139" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="26" t="s">
@@ -2985,7 +2951,7 @@
       <c r="I21" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="J21" s="177" t="s">
+      <c r="J21" s="139" t="s">
         <v>20</v>
       </c>
       <c r="K21" s="26" t="s">
@@ -3019,7 +2985,7 @@
       <c r="I22" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="177" t="s">
+      <c r="J22" s="139" t="s">
         <v>20</v>
       </c>
       <c r="K22" s="93"/>
@@ -3051,10 +3017,10 @@
       <c r="I23" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="J23" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="176" t="s">
+      <c r="J23" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="138" t="s">
         <v>190</v>
       </c>
       <c r="L23" s="52"/>
@@ -3083,10 +3049,10 @@
       <c r="I24" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="J24" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="176" t="s">
+      <c r="J24" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="138" t="s">
         <v>190</v>
       </c>
       <c r="L24" s="52"/>
@@ -3117,10 +3083,10 @@
       <c r="I25" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="J25" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="176" t="s">
+      <c r="J25" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="138" t="s">
         <v>190</v>
       </c>
       <c r="L25" s="52"/>
@@ -3149,10 +3115,10 @@
       <c r="I26" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="178"/>
+      <c r="J26" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="140"/>
       <c r="L26" s="52"/>
     </row>
     <row r="27" spans="2:12" ht="31.5" x14ac:dyDescent="0.2">
@@ -3179,7 +3145,7 @@
       <c r="I27" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="177" t="s">
+      <c r="J27" s="139" t="s">
         <v>20</v>
       </c>
       <c r="K27" s="26" t="s">
@@ -3211,7 +3177,7 @@
       <c r="I28" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="J28" s="177" t="s">
+      <c r="J28" s="139" t="s">
         <v>20</v>
       </c>
       <c r="K28" s="26" t="s">
@@ -3243,10 +3209,10 @@
       <c r="I29" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="J29" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="178"/>
+      <c r="J29" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="140"/>
       <c r="L29" s="52"/>
     </row>
     <row r="30" spans="2:12" ht="30" x14ac:dyDescent="0.2">
@@ -3275,10 +3241,10 @@
       <c r="I30" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="J30" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="176" t="s">
+      <c r="J30" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L30" s="52"/>
@@ -3307,10 +3273,10 @@
       <c r="I31" s="107" t="s">
         <v>218</v>
       </c>
-      <c r="J31" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="176" t="s">
+      <c r="J31" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L31" s="52"/>
@@ -3341,10 +3307,10 @@
       <c r="I32" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="J32" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="178"/>
+      <c r="J32" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="140"/>
       <c r="L32" s="52"/>
     </row>
     <row r="33" spans="2:13" ht="60" x14ac:dyDescent="0.2">
@@ -3369,10 +3335,10 @@
       <c r="I33" s="107" t="s">
         <v>218</v>
       </c>
-      <c r="J33" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="176" t="s">
+      <c r="J33" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L33" s="52"/>
@@ -3403,7 +3369,7 @@
       <c r="I34" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="J34" s="176" t="s">
+      <c r="J34" s="138" t="s">
         <v>20</v>
       </c>
       <c r="K34" s="16"/>
@@ -3435,10 +3401,10 @@
       <c r="I35" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="J35" s="176" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="176" t="s">
+      <c r="J35" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L35" s="52"/>
@@ -3470,7 +3436,7 @@
       <c r="I36" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="J36" s="177" t="s">
+      <c r="J36" s="139" t="s">
         <v>20</v>
       </c>
       <c r="K36" s="16"/>
@@ -3503,10 +3469,10 @@
       <c r="I37" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="J37" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="176" t="s">
+      <c r="J37" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="138" t="s">
         <v>190</v>
       </c>
       <c r="L37" s="52"/>
@@ -3536,7 +3502,7 @@
       <c r="I38" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="J38" s="177" t="s">
+      <c r="J38" s="139" t="s">
         <v>20</v>
       </c>
       <c r="K38" s="26" t="s">
@@ -3569,7 +3535,7 @@
       <c r="I39" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="J39" s="177" t="s">
+      <c r="J39" s="139" t="s">
         <v>20</v>
       </c>
       <c r="K39" s="16"/>
@@ -3600,7 +3566,7 @@
       <c r="I40" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="J40" s="179" t="s">
+      <c r="J40" s="141" t="s">
         <v>20</v>
       </c>
       <c r="K40" s="16"/>
@@ -3631,10 +3597,10 @@
       <c r="I41" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="J41" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="176" t="s">
+      <c r="J41" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L41" s="52"/>
@@ -3664,10 +3630,10 @@
       <c r="I42" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="J42" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="176" t="s">
+      <c r="J42" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L42" s="52"/>
@@ -3697,7 +3663,7 @@
       <c r="I43" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="J43" s="177" t="s">
+      <c r="J43" s="139" t="s">
         <v>20</v>
       </c>
       <c r="K43" s="26" t="s">
@@ -3732,7 +3698,7 @@
       <c r="I44" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="J44" s="179" t="s">
+      <c r="J44" s="141" t="s">
         <v>20</v>
       </c>
       <c r="K44" s="16"/>
@@ -3763,7 +3729,7 @@
       <c r="I45" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="J45" s="179" t="s">
+      <c r="J45" s="141" t="s">
         <v>20</v>
       </c>
       <c r="K45" s="16"/>
@@ -3796,10 +3762,10 @@
       <c r="I46" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="J46" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="176" t="s">
+      <c r="J46" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="138" t="s">
         <v>190</v>
       </c>
       <c r="L46" s="52"/>
@@ -3829,7 +3795,7 @@
       <c r="I47" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="J47" s="175" t="s">
+      <c r="J47" s="137" t="s">
         <v>20</v>
       </c>
       <c r="K47" s="16"/>
@@ -3862,7 +3828,7 @@
       <c r="I48" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="J48" s="175" t="s">
+      <c r="J48" s="137" t="s">
         <v>20</v>
       </c>
       <c r="K48" s="16"/>
@@ -3895,7 +3861,7 @@
       <c r="I49" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="J49" s="175" t="s">
+      <c r="J49" s="137" t="s">
         <v>20</v>
       </c>
       <c r="K49" s="16"/>
@@ -3928,10 +3894,10 @@
       <c r="I50" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="J50" s="175" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="176" t="s">
+      <c r="J50" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L50" s="52"/>
@@ -3963,10 +3929,10 @@
       <c r="I51" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="J51" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" s="176" t="s">
+      <c r="J51" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L51" s="52"/>
@@ -3998,7 +3964,7 @@
       <c r="I52" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="J52" s="175" t="s">
+      <c r="J52" s="137" t="s">
         <v>20</v>
       </c>
       <c r="K52" s="16"/>
@@ -4031,10 +3997,10 @@
       <c r="I53" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="J53" s="175" t="s">
-        <v>20</v>
-      </c>
-      <c r="K53" s="176" t="s">
+      <c r="J53" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L53" s="52"/>
@@ -4064,7 +4030,7 @@
       <c r="I54" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="J54" s="175" t="s">
+      <c r="J54" s="137" t="s">
         <v>20</v>
       </c>
       <c r="K54" s="16"/>
@@ -4095,10 +4061,10 @@
       <c r="I55" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="J55" s="175" t="s">
-        <v>20</v>
-      </c>
-      <c r="K55" s="176" t="s">
+      <c r="J55" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L55" s="52"/>
@@ -4128,7 +4094,7 @@
       <c r="I56" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="J56" s="177" t="s">
+      <c r="J56" s="139" t="s">
         <v>20</v>
       </c>
       <c r="K56" s="16"/>
@@ -4158,7 +4124,7 @@
       <c r="I57" s="103" t="s">
         <v>193</v>
       </c>
-      <c r="J57" s="177" t="s">
+      <c r="J57" s="139" t="s">
         <v>20</v>
       </c>
       <c r="K57" s="16"/>
@@ -4190,10 +4156,10 @@
       <c r="I58" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="J58" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K58" s="176" t="s">
+      <c r="J58" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L58" s="52"/>
@@ -4224,7 +4190,7 @@
       <c r="I59" s="91" t="s">
         <v>193</v>
       </c>
-      <c r="J59" s="177" t="s">
+      <c r="J59" s="139" t="s">
         <v>20</v>
       </c>
       <c r="K59" s="16"/>
@@ -4256,7 +4222,7 @@
       <c r="I60" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="J60" s="177" t="s">
+      <c r="J60" s="139" t="s">
         <v>20</v>
       </c>
       <c r="K60" s="16"/>
@@ -4288,10 +4254,10 @@
       <c r="I61" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="J61" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K61" s="176" t="s">
+      <c r="J61" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L61" s="52"/>
@@ -4323,10 +4289,10 @@
       <c r="I62" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="J62" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K62" s="176" t="s">
+      <c r="J62" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L62" s="52"/>
@@ -4358,10 +4324,10 @@
       <c r="I63" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="J63" s="176" t="s">
-        <v>20</v>
-      </c>
-      <c r="K63" s="176" t="s">
+      <c r="J63" s="138" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L63" s="52"/>
@@ -4393,7 +4359,7 @@
       <c r="I64" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="J64" s="177" t="s">
+      <c r="J64" s="139" t="s">
         <v>20</v>
       </c>
       <c r="K64" s="81"/>
@@ -4426,7 +4392,7 @@
       <c r="I65" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="J65" s="177" t="s">
+      <c r="J65" s="139" t="s">
         <v>20</v>
       </c>
       <c r="K65" s="81"/>
@@ -4457,10 +4423,10 @@
       <c r="I66" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="J66" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K66" s="176" t="s">
+      <c r="J66" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L66" s="53"/>
@@ -4489,10 +4455,10 @@
       <c r="I67" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="J67" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K67" s="176" t="s">
+      <c r="J67" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L67" s="53"/>
@@ -4523,7 +4489,7 @@
       <c r="I68" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="J68" s="177" t="s">
+      <c r="J68" s="139" t="s">
         <v>20</v>
       </c>
       <c r="K68" s="16"/>
@@ -4547,16 +4513,16 @@
       <c r="G69" s="100"/>
       <c r="H69" s="96"/>
       <c r="I69" s="88"/>
-      <c r="J69" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="K69" s="176" t="s">
+      <c r="J69" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="138" t="s">
         <v>58</v>
       </c>
       <c r="L69" s="102"/>
     </row>
     <row r="70" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="174">
+      <c r="B70" s="136">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
@@ -4577,7 +4543,7 @@
       <c r="I70" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="J70" s="180" t="s">
+      <c r="J70" s="142" t="s">
         <v>20</v>
       </c>
       <c r="K70" s="58"/>
@@ -4596,10 +4562,10 @@
       <c r="L71" s="6"/>
     </row>
     <row r="72" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="157" t="s">
+      <c r="B72" s="145" t="s">
         <v>178</v>
       </c>
-      <c r="C72" s="157"/>
+      <c r="C72" s="145"/>
       <c r="E72" s="18"/>
       <c r="F72" s="43"/>
       <c r="G72" s="18"/>
@@ -4723,10 +4689,10 @@
       <c r="K81" s="19"/>
     </row>
     <row r="82" spans="2:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B82" s="146" t="s">
+      <c r="B82" s="143" t="s">
         <v>181</v>
       </c>
-      <c r="C82" s="146"/>
+      <c r="C82" s="143"/>
       <c r="D82" s="34"/>
       <c r="E82" s="35"/>
       <c r="F82" s="60"/>
@@ -4764,10 +4730,10 @@
       <c r="K84" s="42"/>
     </row>
     <row r="85" spans="2:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="146" t="s">
+      <c r="B85" s="143" t="s">
         <v>191</v>
       </c>
-      <c r="C85" s="146"/>
+      <c r="C85" s="143"/>
       <c r="D85" s="34"/>
       <c r="E85" s="35"/>
       <c r="F85" s="60"/>
@@ -4808,10 +4774,10 @@
       <c r="L87" s="73"/>
     </row>
     <row r="88" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B88" s="156" t="s">
+      <c r="B88" s="144" t="s">
         <v>184</v>
       </c>
-      <c r="C88" s="156"/>
+      <c r="C88" s="144"/>
       <c r="D88" s="34"/>
       <c r="E88" s="35"/>
       <c r="F88" s="60"/>
@@ -4853,10 +4819,10 @@
       <c r="L90" s="73"/>
     </row>
     <row r="91" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B91" s="156" t="s">
+      <c r="B91" s="144" t="s">
         <v>192</v>
       </c>
-      <c r="C91" s="156"/>
+      <c r="C91" s="144"/>
       <c r="D91" s="34"/>
       <c r="E91" s="35"/>
       <c r="F91" s="60"/>
@@ -5088,6 +5054,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="J6:L8"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="B88:C88"/>
     <mergeCell ref="B91:C91"/>
@@ -5098,12 +5070,6 @@
     <mergeCell ref="H6:I8"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="J6:L8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5122,25 +5088,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de5d2c5c-e379-42cf-85a4-2a4633504156">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <ProjectType xmlns="de5d2c5c-e379-42cf-85a4-2a4633504156" xsi:nil="true"/>
-    <RoutePosition xmlns="de5d2c5c-e379-42cf-85a4-2a4633504156" xsi:nil="true"/>
-    <TaxCatchAll xmlns="6b52167f-bd76-444c-91ba-391bd6f89101" xsi:nil="true"/>
-    <WorkPackage xmlns="de5d2c5c-e379-42cf-85a4-2a4633504156" xsi:nil="true"/>
-    <_dlc_DocId xmlns="6b52167f-bd76-444c-91ba-391bd6f89101">ZONEB-312360090-5736</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="6b52167f-bd76-444c-91ba-391bd6f89101">
-      <Url>https://trecnz.sharepoint.com/sites/ZONEB-SH2SOUTHHAWKESBAY/_layouts/15/DocIdRedir.aspx?ID=ZONEB-312360090-5736</Url>
-      <Description>ZONEB-312360090-5736</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DD10F8FD5832D439B2F2349C378C0CF" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74a0252887db197ee1e6e52ab0c1cdf0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="de5d2c5c-e379-42cf-85a4-2a4633504156" xmlns:ns3="6b52167f-bd76-444c-91ba-391bd6f89101" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e4dc9688cb27098742a208084d446201" ns2:_="" ns3:_="">
     <xsd:import namespace="de5d2c5c-e379-42cf-85a4-2a4633504156"/>
@@ -5424,7 +5371,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de5d2c5c-e379-42cf-85a4-2a4633504156">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <ProjectType xmlns="de5d2c5c-e379-42cf-85a4-2a4633504156" xsi:nil="true"/>
+    <RoutePosition xmlns="de5d2c5c-e379-42cf-85a4-2a4633504156" xsi:nil="true"/>
+    <TaxCatchAll xmlns="6b52167f-bd76-444c-91ba-391bd6f89101" xsi:nil="true"/>
+    <WorkPackage xmlns="de5d2c5c-e379-42cf-85a4-2a4633504156" xsi:nil="true"/>
+    <_dlc_DocId xmlns="6b52167f-bd76-444c-91ba-391bd6f89101">ZONEB-312360090-5736</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="6b52167f-bd76-444c-91ba-391bd6f89101">
+      <Url>https://trecnz.sharepoint.com/sites/ZONEB-SH2SOUTHHAWKESBAY/_layouts/15/DocIdRedir.aspx?ID=ZONEB-312360090-5736</Url>
+      <Description>ZONEB-312360090-5736</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -5474,33 +5449,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1493DBD5-5E21-4F99-9C1A-15CFA8BC2A6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6b52167f-bd76-444c-91ba-391bd6f89101"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="de5d2c5c-e379-42cf-85a4-2a4633504156"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3FCE828-206D-4615-827F-EB3063774AB9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5519,18 +5468,35 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1493DBD5-5E21-4F99-9C1A-15CFA8BC2A6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="6b52167f-bd76-444c-91ba-391bd6f89101"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="de5d2c5c-e379-42cf-85a4-2a4633504156"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC84757D-74C4-406E-83AD-C2EEB58AA5A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADFBD35D-B31A-42C0-A760-CA11DC2BD603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADFBD35D-B31A-42C0-A760-CA11DC2BD603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC84757D-74C4-406E-83AD-C2EEB58AA5A7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
